--- a/data/trans_orig/P14_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R-Edad-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>0.3194519091495</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5952825950804369</v>
+        <v>0.5952825950804368</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1372508770729008</v>
+        <v>0.1358831864582998</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1691177868376147</v>
+        <v>0.1660405570356377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1880296907936344</v>
+        <v>0.1904515593814818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2999733046634501</v>
+        <v>0.3123736415518484</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3804320498640945</v>
+        <v>0.3784661646344025</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3533921588337365</v>
+        <v>0.3585061821899332</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3329665295534313</v>
+        <v>0.3325841212068935</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6222314088852127</v>
+        <v>0.6322294165840338</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2666887131563865</v>
+        <v>0.266467796250957</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2726883114894713</v>
+        <v>0.2718673781362103</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.275551468084313</v>
+        <v>0.2746094159568545</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4989143254929438</v>
+        <v>0.4919069884659941</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.215427440977728</v>
+        <v>0.2168420351206123</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2654260699627029</v>
+        <v>0.2663654123566042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2894507255943696</v>
+        <v>0.2996591418738895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5577231690741065</v>
+        <v>0.5646335285088091</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5057726003336447</v>
+        <v>0.5077732614249897</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4968472397752893</v>
+        <v>0.5004038884922256</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4939234506605012</v>
+        <v>0.4840504504688264</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.019289987090394</v>
+        <v>1.059045666600881</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3460624544227395</v>
+        <v>0.3420595118382768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3630094757820688</v>
+        <v>0.3591979047990684</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.370484206015008</v>
+        <v>0.3678708319281332</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7270304812321612</v>
+        <v>0.719267840578842</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.4040741187720022</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6736154629060689</v>
+        <v>0.6736154629060688</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2174331300068097</v>
+        <v>0.2177317615350141</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2822173972420454</v>
+        <v>0.2765672273234123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2231037406569309</v>
+        <v>0.2265060444756511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3719756152278321</v>
+        <v>0.3748260995765211</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5541001073867249</v>
+        <v>0.5578211373754494</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4854929871645224</v>
+        <v>0.4877283868802352</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.455274352762418</v>
+        <v>0.4692721501460461</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7507244094837504</v>
+        <v>0.7504485801884389</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3869794209271847</v>
+        <v>0.3867476933281646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3931596758638366</v>
+        <v>0.3981689805223093</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3561329691881457</v>
+        <v>0.3559563344928253</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6000207144274476</v>
+        <v>0.5865741395723689</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3127629624988219</v>
+        <v>0.3147178741012358</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3929057982541458</v>
+        <v>0.3921138599184398</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3312662117358209</v>
+        <v>0.3363172514923187</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5918420462841508</v>
+        <v>0.5920039916771637</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7385549182209512</v>
+        <v>0.7347636306904928</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6581280558610855</v>
+        <v>0.6665983684250025</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6158022360913286</v>
+        <v>0.6278105479605693</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.996239285317174</v>
+        <v>0.9986421615363115</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4905823315628591</v>
+        <v>0.4906699137562295</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5007709360527569</v>
+        <v>0.5031016978294998</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.455194782086063</v>
+        <v>0.4570844518905202</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7630211167898416</v>
+        <v>0.7658082153930322</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.5871074108842452</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.929145064229473</v>
+        <v>0.9291450642294726</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3700124078498864</v>
+        <v>0.3833720684764552</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3854523790510954</v>
+        <v>0.3842384268293854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3553091032536135</v>
+        <v>0.3552035215365599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5789517485819718</v>
+        <v>0.5918229573481646</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7010135781299471</v>
+        <v>0.6993330953131617</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8678492899330662</v>
+        <v>0.8707723887446717</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.675432623047832</v>
+        <v>0.6811429595479227</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.056611311339707</v>
+        <v>1.051272475838284</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5678483989753428</v>
+        <v>0.5673239824867622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.643393056533525</v>
+        <v>0.6502159671359797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5347214617851996</v>
+        <v>0.5336852873421706</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8545291314181854</v>
+        <v>0.848126140466407</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5065242980124596</v>
+        <v>0.514939367922106</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5216642030957429</v>
+        <v>0.5207512391621039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.483335072624787</v>
+        <v>0.4879991549708124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8264205736969898</v>
+        <v>0.812445228422206</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8924452355124715</v>
+        <v>0.8972428766792998</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.108961867872049</v>
+        <v>1.104624697534145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8774257047938496</v>
+        <v>0.8767060396319237</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.29470004421714</v>
+        <v>1.279159625554078</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6831607596766068</v>
+        <v>0.6889254508086824</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7953415069940811</v>
+        <v>0.7960682096406126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6518710474558858</v>
+        <v>0.6523487853393775</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.012102657978692</v>
+        <v>1.018316345929822</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>1.100401501899962</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>1.628979140824926</v>
+        <v>1.628979140824927</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7156804561247601</v>
+        <v>0.700098544151563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6359273484743894</v>
+        <v>0.626421485235475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7684382028850439</v>
+        <v>0.7679433905807483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.178847420816952</v>
+        <v>1.196287702572024</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.088711534273949</v>
+        <v>1.096792663320763</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.24610817818995</v>
+        <v>1.240573968552232</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.197212728187966</v>
+        <v>1.203133796298125</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.780288257112326</v>
+        <v>1.776469391284607</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9280502409587974</v>
+        <v>0.9397592946533037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9617582376940792</v>
+        <v>0.9622603877131866</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.012999074698264</v>
+        <v>1.011254998802033</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.527417195107934</v>
+        <v>1.52279638146997</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9769666750188604</v>
+        <v>0.9716283662783328</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8355684015457595</v>
+        <v>0.8329789252956289</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9772971667439975</v>
+        <v>0.9641401810855206</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.502307795365374</v>
+        <v>1.493850424254223</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.392584627138083</v>
+        <v>1.398278165986881</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.548451686114916</v>
+        <v>1.543292557241639</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.504999264836047</v>
+        <v>1.503311166178535</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.068013787956971</v>
+        <v>2.071806055794582</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.121662817997828</v>
+        <v>1.136729581388663</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.147821973932658</v>
+        <v>1.148067833432318</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.198901945762112</v>
+        <v>1.19642456159448</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.735528319858886</v>
+        <v>1.731601644555647</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.542876969567635</v>
+        <v>1.517551124278685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.354178356815721</v>
+        <v>1.358034202693596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.299971022581335</v>
+        <v>1.308909870245667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.786196353281258</v>
+        <v>1.775968399290241</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.761778882361485</v>
+        <v>1.767618461195353</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.300619398992661</v>
+        <v>2.319441263687069</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.20505103756354</v>
+        <v>2.240946596901779</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.515746430690919</v>
+        <v>2.522324707420288</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.688732416264334</v>
+        <v>1.693681393061107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.886327056889735</v>
+        <v>1.893107595449918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.828966058503749</v>
+        <v>1.811228461345323</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.206911074124602</v>
+        <v>2.192645475354592</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.870026947409844</v>
+        <v>1.86009039290486</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.660153574011816</v>
+        <v>1.659157008044986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.689117013034943</v>
+        <v>1.681287238954581</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.09879305661691</v>
+        <v>2.094279280709592</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.107708290744781</v>
+        <v>2.118781843395125</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.795532145766193</v>
+        <v>2.807426328094548</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.696084867531843</v>
+        <v>2.707159266559498</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.895177088578103</v>
+        <v>2.880103755113853</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.923618588713893</v>
+        <v>1.938937747059878</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.182694358449031</v>
+        <v>2.197053926928327</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.162349902548066</v>
+        <v>2.136225014914069</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.456874502787875</v>
+        <v>2.440782067348103</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>3.224902531556161</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>3.466781865510439</v>
+        <v>3.466781865510438</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>2.517240365440829</v>
@@ -1373,7 +1373,7 @@
         <v>2.692124537034023</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>2.99410408786019</v>
+        <v>2.994104087860191</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.874426310863604</v>
+        <v>1.870089047469204</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.444730225784171</v>
+        <v>2.465518542311365</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.912996208547547</v>
+        <v>1.90186275420127</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.307531143627511</v>
+        <v>2.297338648572352</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.675562672915002</v>
+        <v>2.679998271668805</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.978710311358966</v>
+        <v>2.970376101604042</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.940931376040253</v>
+        <v>2.922920390488315</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>3.271626791140263</v>
+        <v>3.259650666771012</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.35695248851396</v>
+        <v>2.367170080316536</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2.792675766823786</v>
+        <v>2.790716670709524</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2.52004334669109</v>
+        <v>2.516619373316837</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.847626779045695</v>
+        <v>2.844598663802913</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.323197625645298</v>
+        <v>2.309848716362387</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.915679025379454</v>
+        <v>2.955024561538124</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.31462206241875</v>
+        <v>2.297387117387562</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.705722483516064</v>
+        <v>2.680798042068363</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.111481180835162</v>
+        <v>3.130440477025879</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.490668347352111</v>
+        <v>3.482695707105359</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.541544914089199</v>
+        <v>3.542936345279459</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.67183143681518</v>
+        <v>3.671198103075271</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.679195494481039</v>
+        <v>2.695019761914269</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.141118604621349</v>
+        <v>3.153233178801018</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2.88909029823261</v>
+        <v>2.902271580334107</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.136398050585897</v>
+        <v>3.134156929879717</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>2.992336984636838</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.760714652636388</v>
+        <v>3.760714652636389</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>3.244514791793127</v>
@@ -1497,7 +1497,7 @@
         <v>3.773124681739042</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>4.865379902261624</v>
+        <v>4.865379902261623</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>3.085163808719008</v>
@@ -1509,7 +1509,7 @@
         <v>3.467782390875267</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>4.423121115619675</v>
+        <v>4.423121115619674</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.562229692737586</v>
+        <v>2.564406736976613</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.989838928585386</v>
+        <v>2.9631787882884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.706897366042119</v>
+        <v>2.740187734217066</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.518447653403475</v>
+        <v>3.478197495990417</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.030102352066053</v>
+        <v>3.012052772011628</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.009622624234567</v>
+        <v>3.991771463723012</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.455021834857604</v>
+        <v>3.457230623043595</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.625177979628344</v>
+        <v>4.612920393401611</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.885722509823638</v>
+        <v>2.907606792810883</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3.667368910331885</v>
+        <v>3.653906803825156</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3.259770470474668</v>
+        <v>3.251801721169407</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>4.226148095245657</v>
+        <v>4.230032783304572</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.143224948817531</v>
+        <v>3.171269010938789</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.592037598868518</v>
+        <v>3.555600669653658</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.273787309366913</v>
+        <v>3.290926138676447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.060086048381915</v>
+        <v>4.037453623862469</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.500800189218694</v>
+        <v>3.486995674330085</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.575724669614651</v>
+        <v>4.565036553710716</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.130603400644701</v>
+        <v>4.123306318828489</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.121998093552231</v>
+        <v>5.09914794670768</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.278474562223789</v>
+        <v>3.269274943155951</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4.083109573156478</v>
+        <v>4.077441258022045</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3.717874084040615</v>
+        <v>3.718536033594881</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>4.596555111439162</v>
+        <v>4.602216825311022</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8154710808589435</v>
+        <v>0.8169619372217753</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.928116559507813</v>
+        <v>0.9261539204595446</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9058568334793917</v>
+        <v>0.9125085671459522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.38328108090314</v>
+        <v>1.379854834197529</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.310185056608782</v>
+        <v>1.315333178170253</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1.617632527800579</v>
+        <v>1.61682378513007</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.557661439787535</v>
+        <v>1.559219084973668</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.144169097885172</v>
+        <v>2.144001732438137</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>1.084651051824812</v>
+        <v>1.086004489272541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1.289951673475743</v>
+        <v>1.296069145519523</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.254847967492914</v>
+        <v>1.25577968788326</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.792498172601398</v>
+        <v>1.788752147479864</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9181440564543097</v>
+        <v>0.9178425893586184</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.036054058975726</v>
+        <v>1.035456283231111</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.016825739945014</v>
+        <v>1.017414521114036</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.518346191724776</v>
+        <v>1.51421483628804</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1.436177542208843</v>
+        <v>1.440616378031952</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1.767474011628159</v>
+        <v>1.76749332868743</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>1.720838276182268</v>
+        <v>1.71883320145004</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.290201701946234</v>
+        <v>2.293390463028812</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>1.166659859022462</v>
+        <v>1.167632043827288</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1.38863673486727</v>
+        <v>1.390189785740953</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1.355777177301061</v>
+        <v>1.355468256521629</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>1.895336809119187</v>
+        <v>1.890924554610246</v>
       </c>
     </row>
     <row r="28">
